--- a/MTG - Image Control Sheet - 20220105 1039.xlsx
+++ b/MTG - Image Control Sheet - 20220105 1039.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/datafarm/ImageAugmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F266C-6438-324D-BC34-5ED1EBFFC65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F205C-24B1-1848-8996-5511FA06D918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="760" windowWidth="27000" windowHeight="18880" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
+    <workbookView xWindow="2160" yWindow="760" windowWidth="27000" windowHeight="18880" activeTab="5" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Defect Type" sheetId="2" r:id="rId2"/>
-    <sheet name="Image Size" sheetId="3" r:id="rId3"/>
+    <sheet name="Control Sheet(PKM)" sheetId="1" r:id="rId1"/>
+    <sheet name="Control Sheet(UGO)" sheetId="5" r:id="rId2"/>
+    <sheet name="Control Sheet(MTG)" sheetId="6" r:id="rId3"/>
+    <sheet name="Naming Convention(PKM)" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect Type" sheetId="2" r:id="rId5"/>
+    <sheet name="Image Size" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="281">
   <si>
     <t>Card Type</t>
   </si>
@@ -95,12 +98,6 @@
     <t>MTG_269_574_L_001F</t>
   </si>
   <si>
-    <t>Front without defect</t>
-  </si>
-  <si>
-    <t>Front with defects</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -202,13 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>132/194 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PKM_001F_132_194_RR_Chi</t>
-  </si>
-  <si>
     <t>PKM_002F_113_194_RR_Chi</t>
   </si>
   <si>
@@ -311,6 +301,798 @@
   </si>
   <si>
     <t>179/196 U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX Ruby &amp; Sapphire</t>
+  </si>
+  <si>
+    <t>Generation III
+G3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation IV
+G4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation V
+G5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation VI
+G6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation VII
+G7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation VIII
+G8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>EX Sandstorm</t>
+  </si>
+  <si>
+    <t>EX Dragon</t>
+  </si>
+  <si>
+    <t>EX Team Magma vs Team Aqua</t>
+  </si>
+  <si>
+    <t>EX Hidden Legends</t>
+  </si>
+  <si>
+    <t>EX FireRed &amp; LeafGreen</t>
+  </si>
+  <si>
+    <t>EX Team Rocket Returns</t>
+  </si>
+  <si>
+    <t>EX Deoxys</t>
+  </si>
+  <si>
+    <t>EX Emerald</t>
+  </si>
+  <si>
+    <t>EX Unseen Forces</t>
+  </si>
+  <si>
+    <t>EX Delta Species</t>
+  </si>
+  <si>
+    <t>EX Legend Maker</t>
+  </si>
+  <si>
+    <t>EX Holon Phantoms</t>
+  </si>
+  <si>
+    <t>EX Crystal Guardians</t>
+  </si>
+  <si>
+    <t>EX Dragon Frontiers</t>
+  </si>
+  <si>
+    <t>EX Power Keepers</t>
+  </si>
+  <si>
+    <t>Diamond &amp; Pearl</t>
+  </si>
+  <si>
+    <t>Mysterious Treasures</t>
+  </si>
+  <si>
+    <t>Secret Wonders</t>
+  </si>
+  <si>
+    <t>Great Encounters</t>
+  </si>
+  <si>
+    <t>Majestic Dawn</t>
+  </si>
+  <si>
+    <t>Legends Awakened</t>
+  </si>
+  <si>
+    <t>Stormfront</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Rising Rivals</t>
+  </si>
+  <si>
+    <t>Supreme Victors</t>
+  </si>
+  <si>
+    <t>Arceus</t>
+  </si>
+  <si>
+    <t>HeartGold &amp; SoulSilver</t>
+  </si>
+  <si>
+    <t>Unleashed</t>
+  </si>
+  <si>
+    <t>Undaunted</t>
+  </si>
+  <si>
+    <t>Triumphant</t>
+  </si>
+  <si>
+    <t>Call of Legends</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Emerging Powers</t>
+  </si>
+  <si>
+    <t>Noble Victories</t>
+  </si>
+  <si>
+    <t>Next Destinies</t>
+  </si>
+  <si>
+    <t>Dark Explorers</t>
+  </si>
+  <si>
+    <t>Dragons Exalted</t>
+  </si>
+  <si>
+    <t>Dragon Vault</t>
+  </si>
+  <si>
+    <t>Boundaries Crossed</t>
+  </si>
+  <si>
+    <t>Plasma Storm</t>
+  </si>
+  <si>
+    <t>Plasma Freeze</t>
+  </si>
+  <si>
+    <t>Plasma Blast</t>
+  </si>
+  <si>
+    <t>Legendary Treasures</t>
+  </si>
+  <si>
+    <t>Kalos Starter Set</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Flashfire</t>
+  </si>
+  <si>
+    <t>Furious Fists</t>
+  </si>
+  <si>
+    <t>Phantom Forces</t>
+  </si>
+  <si>
+    <t>Primal Clash</t>
+  </si>
+  <si>
+    <t>Double Crisis</t>
+  </si>
+  <si>
+    <t>Roaring Skies</t>
+  </si>
+  <si>
+    <t>Ancient Origins</t>
+  </si>
+  <si>
+    <t>BREAKthrough</t>
+  </si>
+  <si>
+    <t>BREAKpoint</t>
+  </si>
+  <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>Fates Collide</t>
+  </si>
+  <si>
+    <t>Steam Siege</t>
+  </si>
+  <si>
+    <t>Evolutions</t>
+  </si>
+  <si>
+    <t>Sun &amp; Moon</t>
+  </si>
+  <si>
+    <t>Guardians Rising</t>
+  </si>
+  <si>
+    <t>Shining Legends</t>
+  </si>
+  <si>
+    <t>Crimson Invasion</t>
+  </si>
+  <si>
+    <t>Ultra Prism</t>
+  </si>
+  <si>
+    <t>Forbidden Light</t>
+  </si>
+  <si>
+    <t>Celestial Storm</t>
+  </si>
+  <si>
+    <t>Dragon Majesty</t>
+  </si>
+  <si>
+    <t>Lost Thunder</t>
+  </si>
+  <si>
+    <t>Team Up</t>
+  </si>
+  <si>
+    <t>Detective Pikachu</t>
+  </si>
+  <si>
+    <t>Unbroken Bonds</t>
+  </si>
+  <si>
+    <t>Unified Minds</t>
+  </si>
+  <si>
+    <t>Hidden Fates</t>
+  </si>
+  <si>
+    <t>Cosmic Eclipse</t>
+  </si>
+  <si>
+    <t>Sword &amp; Shield</t>
+  </si>
+  <si>
+    <t>Rebel Clash</t>
+  </si>
+  <si>
+    <t>Darkness Ablaze</t>
+  </si>
+  <si>
+    <t>Champion's Path</t>
+  </si>
+  <si>
+    <t>Vivid Voltage</t>
+  </si>
+  <si>
+    <t>Shining Fates</t>
+  </si>
+  <si>
+    <t>Battle Styles</t>
+  </si>
+  <si>
+    <t>Chilling Reign</t>
+  </si>
+  <si>
+    <t>Evolving Skies</t>
+  </si>
+  <si>
+    <t>Celebrations</t>
+  </si>
+  <si>
+    <t>Fusion Strike</t>
+  </si>
+  <si>
+    <t>Brilliant Stars</t>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check your energy card here -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check your pkm card here -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese version of the current icon</t>
+  </si>
+  <si>
+    <t>Icons used in the English and Japanese versions</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>Ankomon</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Double rarity</t>
+  </si>
+  <si>
+    <t>Double Rare</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Triple Rare</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>Very rare</t>
+  </si>
+  <si>
+    <t>Super Rare</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Super rare</t>
+  </si>
+  <si>
+    <t>Hyper Rare</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Extremely rare</t>
+  </si>
+  <si>
+    <t>Ultra Rare</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Prism Star Rare</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Prismatic Star</t>
+  </si>
+  <si>
+    <t>Trainer rare</t>
+  </si>
+  <si>
+    <t>Trainers Rare</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Fantasy Rare</t>
+  </si>
+  <si>
+    <t>Amazing Rare</t>
+  </si>
+  <si>
+    <t>Characters are rare</t>
+  </si>
+  <si>
+    <t>Character Rare</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>Character is very rare</t>
+  </si>
+  <si>
+    <t>Character Super Rare</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>Heterochromia</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Heterochromia is very rare</t>
+  </si>
+  <si>
+    <t>Shiny Super Rare</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>レア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ダブルレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>トリプルレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>スーパーレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ハイパーレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ウルトラレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>プリズムスターレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>トレーナーズレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>キャラクターレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>キャラクタースーパーレア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>シャイニー</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>シャイニースーパーレア</t>
+    </r>
+  </si>
+  <si>
+    <t>Check your generation here -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon, item cards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon, supporter card, item card, arena card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon EX, Pokémon GX, Pokémon V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon VMAX, Pokémon V-UNION, Pokémon VSTAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon GX, Pokémon V, Supporter Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon GX, Pokémon VMAX, Supporter Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporter card, item card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon V, Pokémon VMAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pokémon GX, Pokémon V, Pokémon VMAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>コモン</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アンコモン</t>
+  </si>
+  <si>
+    <r>
+      <t>Pokémon, Supporter Card, Item Card, Arena Card, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Energy Card</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pokémon, Pokémon GX, Pokémon V, Pokémon VMAX, Item Card, Arena Card, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Energy Card</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       Generation
+Series</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use this column for rarity ⬆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning Shadows</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +1100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +1123,123 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0645AD"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFBA0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0645AD"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBA0000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +1255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -373,11 +1272,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -400,9 +1421,151 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,6 +1578,867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="圖片 16" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8AAC3B-72DF-3C44-A5F1-3804A283BCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="16700500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BF7B08-AE6B-6A4F-BC7A-2B9851E76CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="16954500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="圖片 18" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA06A397-6074-FE40-90E5-3ED8ADFA01CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="17208500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E64D52-4821-A545-980F-64C599F0A687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="17462500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="圖片 20" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC252B0A-B9D4-1640-95E2-26AA17A97281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="17716500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="圖片 21" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942A4819-8322-9046-86E1-C1F083FA7371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="17970500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="圖片 22" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49598C1-164C-164F-A300-94C4C38067BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="18224500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>203202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="圖片 23" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31177E2F-3C54-3444-9937-B14A0565542F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="18478500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="圖片 26" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FE05F8-98D1-DF4E-A58F-2F49B9BAD686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="18732500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="圖片 27" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C29382-24B2-FB49-B418-8D0EB464C51B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="18986500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="圖片 28" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDBCFA8-134F-324E-BE0D-F17F20D26581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="19240500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="圖片 29" descr="Flash card or hologram card">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764BCCE1-21B0-D44A-9515-659D059F4904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="19494500"/>
+          <a:ext cx="266700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>736604</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="241300" cy="241300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="圖片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7D66A7-B9FA-9E46-BA82-E8643E2C64B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17669937" y="5194300"/>
+          <a:ext cx="241300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728139</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="241300" cy="241300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="圖片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBCF52-2164-4C49-9F9B-AACAB3C04C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19337872" y="5219700"/>
+          <a:ext cx="241300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,11 +2738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61FA53-B5A7-45E9-A637-3FC619930C6D}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -733,7 +2757,7 @@
     <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="36" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -761,10 +2785,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="5">
-        <v>32807846</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -775,22 +2802,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -801,28 +2819,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7">
-        <v>44567</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -830,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -1026,74 +3035,6 @@
         <v>5</v>
       </c>
       <c r="H16" s="7">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="7">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="7">
         <v>44566</v>
       </c>
     </row>
@@ -1117,11 +3058,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0D21C8-8C93-4C41-A4FB-9D2CF5933D50}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="8" width="17.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
+        <v>32807846</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{948587A2-B677-FB43-BB0D-7B75845F03DF}">
+          <x14:formula1>
+            <xm:f>'Defect Type'!$C$2:$C$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5DBAB-C3EE-6446-9DDB-A4B6F3696C98}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" customWidth="1"/>
+    <col min="7" max="8" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>44567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE87CE9B-4BFC-5E42-ADB2-2F2A849645A0}">
+          <x14:formula1>
+            <xm:f>'Defect Type'!$C$2:$C$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3DA433-A7AD-DC45-ADF1-90DE1B367AAD}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="25.796875" style="8" customWidth="1"/>
+    <col min="2" max="4" width="25.19921875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="12" customWidth="1"/>
+    <col min="9" max="11" width="23.796875" style="12" customWidth="1"/>
+    <col min="12" max="13" width="26.3984375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="44.19921875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="11" style="12"/>
+    <col min="16" max="16" width="17.59765625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="53" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="35" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="35" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="35" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="35" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="35" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="35" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="35" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="35" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="35" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="35" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="35" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="35" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="35" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="35" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="I15" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="35" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="I16" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="35" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="L17" s="32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="35" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="56" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" ht="35" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:12" ht="35" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:12" ht="35" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:12" ht="35" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:12" ht="35" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:12" ht="35" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:12" ht="35" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:12" ht="35" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:12" ht="35" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:12" ht="35" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:12" ht="35" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:12" ht="35" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" ht="35" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" ht="35" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" ht="35" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="1:10" ht="18">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" ht="18">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="1:10" ht="18">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" spans="1:10" ht="18">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" ht="18">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:10" ht="18">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" spans="1:10" ht="18">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" ht="18">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+    </row>
+    <row r="46" spans="1:10" ht="18">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+    </row>
+    <row r="47" spans="1:10" ht="18">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" ht="18">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+    </row>
+    <row r="49" spans="1:10" ht="18">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+    </row>
+    <row r="50" spans="1:10" ht="18">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="1:10" ht="18">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+    </row>
+    <row r="52" spans="1:10" ht="18">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1CC2AA-D175-4BA5-97CF-8A0C62403FA1}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -1135,16 +4451,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
@@ -1155,13 +4471,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1169,16 +4485,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1186,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1200,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,13 +4530,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1228,13 +4544,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1242,13 +4558,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1256,13 +4572,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1270,13 +4586,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1284,13 +4600,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1298,13 +4614,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1312,13 +4628,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1326,13 +4642,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1340,13 +4656,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1354,13 +4670,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1368,13 +4684,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1382,13 +4698,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1396,13 +4712,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1410,13 +4726,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1424,13 +4740,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1438,13 +4754,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1452,13 +4768,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1466,13 +4782,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1480,13 +4796,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1494,13 +4810,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1508,13 +4824,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1522,13 +4838,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,13 +4852,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1551,12 +4867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E790CD05-7E74-4251-BD11-B26210DE515D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1566,7 +4882,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>2078</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1574,7 +4890,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1488</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/MTG - Image Control Sheet - 20220105 1039.xlsx
+++ b/MTG - Image Control Sheet - 20220105 1039.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/datafarm/ImageAugmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F205C-24B1-1848-8996-5511FA06D918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7DFCC-6C45-FC45-93F9-D41415DF4C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="760" windowWidth="27000" windowHeight="18880" activeTab="5" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
+    <workbookView xWindow="29600" yWindow="500" windowWidth="21600" windowHeight="28300" activeTab="3" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Sheet(PKM)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="214">
   <si>
     <t>Card Type</t>
   </si>
@@ -657,405 +657,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Japanese version of the current icon</t>
-  </si>
-  <si>
-    <t>Icons used in the English and Japanese versions</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>Ankomon</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Double rarity</t>
-  </si>
-  <si>
-    <t>Double Rare</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Triple Rare</t>
-  </si>
-  <si>
-    <t>RRR</t>
-  </si>
-  <si>
-    <t>Very rare</t>
-  </si>
-  <si>
-    <t>Super Rare</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Super rare</t>
-  </si>
-  <si>
-    <t>Hyper Rare</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Extremely rare</t>
-  </si>
-  <si>
-    <t>Ultra Rare</t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>Prism Star Rare</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Prismatic Star</t>
-  </si>
-  <si>
-    <t>Trainer rare</t>
-  </si>
-  <si>
-    <t>Trainers Rare</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Fantasy Rare</t>
-  </si>
-  <si>
-    <t>Amazing Rare</t>
-  </si>
-  <si>
-    <t>Characters are rare</t>
-  </si>
-  <si>
-    <t>Character Rare</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>Character is very rare</t>
-  </si>
-  <si>
-    <t>Character Super Rare</t>
-  </si>
-  <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>Heterochromia</t>
-  </si>
-  <si>
-    <t>Shiny</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Heterochromia is very rare</t>
-  </si>
-  <si>
-    <t>Shiny Super Rare</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>Rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>●</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>レア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>★</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>ダブルレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>トリプルレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>スーパーレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>ハイパーレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>ウルトラレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>プリズムスターレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>トレーナーズレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>キャラクターレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>キャラクタースーパーレア</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>シャイニー</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>シャイニースーパーレア</t>
-    </r>
-  </si>
-  <si>
     <t>Check your generation here -&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon, item cards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon, supporter card, item card, arena card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon EX, Pokémon GX, Pokémon V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon VMAX, Pokémon V-UNION, Pokémon VSTAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon GX, Pokémon V, Supporter Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon GX, Pokémon VMAX, Supporter Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supporter card, item card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon V, Pokémon VMAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pokémon GX, Pokémon V, Pokémon VMAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>コモン</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>アンコモン</t>
-  </si>
-  <si>
-    <r>
-      <t>Pokémon, Supporter Card, Item Card, Arena Card, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Energy Card</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Pokémon, Pokémon GX, Pokémon V, Pokémon VMAX, Item Card, Arena Card, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Energy Card</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1064,10 +666,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Use this column for rarity ⬆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Remarks:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1093,6 +691,60 @@
   </si>
   <si>
     <t>Burning Shadows</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water 
+E9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychic
+E8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal 
+E7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning 
+E6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass 
+E5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire 
+E4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting 
+E3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairy 
+E2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darkness 
+E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colorless
+E0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,12 +858,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0645AD"/>
       <name val="Menlo Regular"/>
     </font>
@@ -1219,26 +865,6 @@
       <sz val="11"/>
       <color rgb="FFBA0000"/>
       <name val="Menlo Regular"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1255,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1349,17 +975,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1398,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1484,56 +1099,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,16 +1135,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,867 +1169,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="圖片 16" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8AAC3B-72DF-3C44-A5F1-3804A283BCE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="16700500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="圖片 17" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BF7B08-AE6B-6A4F-BC7A-2B9851E76CFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="16954500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="圖片 18" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA06A397-6074-FE40-90E5-3ED8ADFA01CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="17208500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="圖片 19" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E64D52-4821-A545-980F-64C599F0A687}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="17462500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="圖片 20" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC252B0A-B9D4-1640-95E2-26AA17A97281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="17716500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="圖片 21" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942A4819-8322-9046-86E1-C1F083FA7371}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="17970500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>177798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="圖片 22" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49598C1-164C-164F-A300-94C4C38067BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="18224500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>203202</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="圖片 23" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31177E2F-3C54-3444-9937-B14A0565542F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="18478500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>4195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="圖片 26" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FE05F8-98D1-DF4E-A58F-2F49B9BAD686}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="18732500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="圖片 27" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C29382-24B2-FB49-B418-8D0EB464C51B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="18986500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="圖片 28" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDBCFA8-134F-324E-BE0D-F17F20D26581}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="19240500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="圖片 29" descr="Flash card or hologram card">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Flash card or hologram card"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764BCCE1-21B0-D44A-9515-659D059F4904}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9791700" y="19494500"/>
-          <a:ext cx="266700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>736604</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="241300" cy="241300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="圖片 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7D66A7-B9FA-9E46-BA82-E8643E2C64B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17669937" y="5194300"/>
-          <a:ext cx="241300" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>728139</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="241300" cy="241300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="圖片 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBCF52-2164-4C49-9F9B-AACAB3C04C26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19337872" y="5219700"/>
-          <a:ext cx="241300" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3110,10 +1840,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="H2" s="7">
         <v>44566</v>
@@ -3229,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -3255,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -3284,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3DA433-A7AD-DC45-ADF1-90DE1B367AAD}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3298,17 +2028,15 @@
     <col min="6" max="6" width="26.3984375" style="13" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" style="12" customWidth="1"/>
-    <col min="9" max="11" width="23.796875" style="12" customWidth="1"/>
-    <col min="12" max="13" width="26.3984375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="44.19921875" style="39" customWidth="1"/>
-    <col min="15" max="15" width="11" style="12"/>
-    <col min="16" max="16" width="17.59765625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="12"/>
+    <col min="9" max="9" width="23.796875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11" style="12"/>
+    <col min="11" max="11" width="17.59765625" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="53" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="53" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>84</v>
@@ -3328,25 +2056,14 @@
       <c r="G1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="P1" s="56" t="s">
+      <c r="I1" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="35" customHeight="1">
+    <row r="2" spans="1:11" ht="35" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>90</v>
       </c>
@@ -3368,29 +2085,14 @@
       <c r="G2" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="31" t="s">
+      <c r="I2" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="35" customHeight="1">
+    </row>
+    <row r="3" spans="1:11" ht="35" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>91</v>
       </c>
@@ -3412,29 +2114,14 @@
       <c r="G3" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="35" customHeight="1">
+      <c r="I3" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>92</v>
       </c>
@@ -3451,34 +2138,19 @@
         <v>151</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="35" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" ht="35" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>93</v>
       </c>
@@ -3500,26 +2172,11 @@
       <c r="G5" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="35" customHeight="1">
+      <c r="I5" s="47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>94</v>
       </c>
@@ -3541,26 +2198,11 @@
       <c r="G6" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="L6" s="32" t="s">
+      <c r="I6" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="35" customHeight="1">
+    </row>
+    <row r="7" spans="1:11" ht="35" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
@@ -3582,26 +2224,11 @@
       <c r="G7" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="35" customHeight="1">
+      <c r="I7" s="47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>96</v>
       </c>
@@ -3623,26 +2250,11 @@
       <c r="G8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="35" customHeight="1">
+      <c r="I8" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>97</v>
       </c>
@@ -3664,26 +2276,11 @@
       <c r="G9" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="35" customHeight="1">
+      <c r="I9" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>98</v>
       </c>
@@ -3705,26 +2302,11 @@
       <c r="G10" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="35" customHeight="1">
+      <c r="I10" s="47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
@@ -3746,24 +2328,11 @@
       <c r="G11" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="35" customHeight="1">
+      <c r="I11" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>100</v>
       </c>
@@ -3785,22 +2354,9 @@
       <c r="G12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="35" customHeight="1">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="35" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>101</v>
       </c>
@@ -3822,26 +2378,9 @@
       <c r="G13" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="35" customHeight="1">
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="35" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>102</v>
       </c>
@@ -3859,24 +2398,9 @@
         <v>175</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="I14" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="35" customHeight="1">
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="35" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>103</v>
       </c>
@@ -3894,26 +2418,9 @@
         <v>176</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="I15" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="35" customHeight="1">
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" ht="35" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>104</v>
       </c>
@@ -3931,26 +2438,9 @@
         <v>177</v>
       </c>
       <c r="G16" s="21"/>
-      <c r="I16" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="35" customHeight="1">
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="35" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>105</v>
       </c>
@@ -3966,13 +2456,11 @@
         <v>178</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="L17" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" customHeight="1">
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>193</v>
@@ -3987,13 +2475,13 @@
         <v>191</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="35" customHeight="1">
+    <row r="19" spans="1:9" ht="35" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4002,433 +2490,394 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="56" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:12" ht="35" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:12" ht="35" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:12" ht="35" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:12" ht="35" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:12" ht="35" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-    </row>
-    <row r="26" spans="1:12" ht="35" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="1:12" ht="35" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-    </row>
-    <row r="28" spans="1:12" ht="35" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-    </row>
-    <row r="29" spans="1:12" ht="35" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-    </row>
-    <row r="30" spans="1:12" ht="35" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:12" ht="35" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:12" ht="35" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-    </row>
-    <row r="33" spans="1:10" ht="35" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-    </row>
-    <row r="34" spans="1:10" ht="35" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-    </row>
-    <row r="35" spans="1:10" ht="35" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-    </row>
-    <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-    </row>
-    <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-    </row>
-    <row r="39" spans="1:10" ht="18">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" ht="18">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" ht="18">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-    </row>
-    <row r="42" spans="1:10" ht="18">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-    </row>
-    <row r="43" spans="1:10" ht="18">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-    </row>
-    <row r="44" spans="1:10" ht="18">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" spans="1:10" ht="18">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-    </row>
-    <row r="46" spans="1:10" ht="18">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10" ht="18">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-    </row>
-    <row r="48" spans="1:10" ht="18">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" ht="18">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" ht="18">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="51" spans="1:10" ht="18">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-    </row>
-    <row r="52" spans="1:10" ht="18">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+    <row r="20" spans="1:9" ht="56" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="35" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="35" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" ht="35" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="35" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" ht="35" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" ht="35" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="35" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="35" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" ht="35" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" ht="35" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" ht="35" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" ht="35" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="35" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="35" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" ht="35" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="18">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" ht="18">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="18">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" ht="18">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="18">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" ht="18">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" ht="18">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" ht="18">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" ht="18">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" ht="18">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="18">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" ht="18">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" ht="18">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" ht="18">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="18">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" ht="18">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4871,7 +3320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E790CD05-7E74-4251-BD11-B26210DE515D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/MTG - Image Control Sheet - 20220105 1039.xlsx
+++ b/MTG - Image Control Sheet - 20220105 1039.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/datafarm/ImageAugmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7DFCC-6C45-FC45-93F9-D41415DF4C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9ED3B4-3D56-A84B-9A3D-6A7F1D05C102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29600" yWindow="500" windowWidth="21600" windowHeight="28300" activeTab="3" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Sheet(PKM)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>Card Type</t>
   </si>
@@ -199,111 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PKM_002F_113_194_RR_Chi</t>
-  </si>
-  <si>
-    <t>PKM_003F_138_156_U_Chi</t>
-  </si>
-  <si>
-    <t>PKM_004F_102_200_R_Chi</t>
-  </si>
-  <si>
-    <t>PKM_005F_34_100_R_Eng</t>
-  </si>
-  <si>
-    <t>PKM_006F_63_146_U_Eng</t>
-  </si>
-  <si>
-    <t>PKM_007F_116_130_U_Eng</t>
-  </si>
-  <si>
-    <t>PKM_008F_Fire_Eng_U</t>
-  </si>
-  <si>
-    <t>PKM_009F_25_186_R_Chi</t>
-  </si>
-  <si>
-    <t>PKM_010F_2_184_RR_Chi</t>
-  </si>
-  <si>
-    <t>PKM_011F_165_194_RR_Chi</t>
-  </si>
-  <si>
-    <t>PKM_012F_101_196_RR_Chi</t>
-  </si>
-  <si>
-    <t>PKM_013F_152_169_U_Chi</t>
-  </si>
-  <si>
-    <t>PKM_014F_196_200_U_Chi</t>
-  </si>
-  <si>
-    <t>PKM_015F_178_196_U_Chi</t>
-  </si>
-  <si>
-    <t>PKM_016F_179_196_U_Chi</t>
-  </si>
-  <si>
-    <t>113/194 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>138/156 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102/200 R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34/100 R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>63/146 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>116/130 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Energy U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25/186 R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/184 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>165/194 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101/196 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>152/169 RR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>196/200 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>178/196 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>179/196 U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -653,10 +548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Check your pkm card here -&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Check your generation here -&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -745,6 +636,18 @@
   <si>
     <t>Colorless
 E0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check your English pkm card here -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check your Japan pkm card here -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check your Chinese pkm card here -&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1375,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -1517,12 +1420,6 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1534,12 +1431,6 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1551,12 +1442,6 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1568,12 +1453,6 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1585,12 +1464,6 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1602,12 +1475,6 @@
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1619,12 +1486,6 @@
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1636,12 +1497,6 @@
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1653,12 +1508,6 @@
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1670,12 +1519,6 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1687,12 +1530,6 @@
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1704,12 +1541,6 @@
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1721,12 +1552,6 @@
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1738,12 +1563,6 @@
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1754,12 +1573,6 @@
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>5</v>
@@ -1840,10 +1653,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="H2" s="7">
         <v>44566</v>
@@ -1959,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -1985,7 +1798,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -2017,7 +1830,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2036,464 +1849,472 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="53" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="35" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="I2" s="47" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>180</v>
-      </c>
       <c r="I3" s="47" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="I5" s="47" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>183</v>
-      </c>
       <c r="I6" s="47" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="I7" s="47" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="I8" s="47" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="I9" s="47" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="I10" s="47" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>188</v>
-      </c>
       <c r="I11" s="48" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="35" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="35" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="18" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G14" s="21"/>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="35" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="18" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G15" s="21"/>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="35" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="18" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G16" s="21"/>
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="35" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="23" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="G17" s="25"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:9" ht="45" customHeight="1">
+    <row r="18" spans="1:9" ht="63" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="35" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="56" customHeight="1">
+    <row r="20" spans="1:9" ht="63" customHeight="1">
       <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -2877,6 +2698,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{5C16FFAD-903A-6A4D-AC58-FAB63FB607AE}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{A2B5BEE0-4F18-B14C-9023-A3081D1712E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MTG - Image Control Sheet - 20220105 1039.xlsx
+++ b/MTG - Image Control Sheet - 20220105 1039.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/datafarm/ImageAugmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9ED3B4-3D56-A84B-9A3D-6A7F1D05C102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4439D60-DE31-B34E-AC6C-A9AB3510F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
   </bookViews>
@@ -1829,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3DA433-A7AD-DC45-ADF1-90DE1B367AAD}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/MTG - Image Control Sheet - 20220105 1039.xlsx
+++ b/MTG - Image Control Sheet - 20220105 1039.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fm/Downloads/datafarm/ImageAugmentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\vgtgd\Git\ImageAugmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4439D60-DE31-B34E-AC6C-A9AB3510F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26954231-4046-4A04-A9BA-F74FC98D22B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{14338175-A3D4-41B1-86D0-33A9C50D0C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Sheet(PKM)" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MTG_269_574_L_001F_R1.5_E40_S50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -649,6 +645,9 @@
   <si>
     <t>Check your Chinese pkm card here -&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTG_269_574_L_001F_R1_E40_S50</t>
   </si>
 </sst>
 </file>
@@ -659,7 +658,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -667,13 +666,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -693,7 +692,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1058,8 +1057,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,7 +1074,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1373,21 +1372,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61FA53-B5A7-45E9-A637-3FC619930C6D}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="20.5546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="24" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.796875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.19921875" style="1"/>
+    <col min="8" max="8" width="25.77734375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
@@ -1604,16 +1603,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0D21C8-8C93-4C41-A4FB-9D2CF5933D50}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="8" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
@@ -1653,10 +1652,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="H2" s="7">
         <v>44566</v>
@@ -1714,19 +1713,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5DBAB-C3EE-6446-9DDB-A4B6F3696C98}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="34.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="21.796875" customWidth="1"/>
-    <col min="7" max="8" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
@@ -1772,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -1789,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -1798,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -1829,478 +1828,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3DA433-A7AD-DC45-ADF1-90DE1B367AAD}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.796875" style="8" customWidth="1"/>
-    <col min="2" max="4" width="25.19921875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="26.3984375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="25.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="12" customWidth="1"/>
     <col min="10" max="10" width="11" style="12"/>
-    <col min="11" max="11" width="17.59765625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="12" customWidth="1"/>
     <col min="12" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="53" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="52.95" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="B2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="35" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="35" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="35" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="35" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="35" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="35" customHeight="1">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="35" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" ht="35" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="21"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="35" customHeight="1">
+    <row r="15" spans="1:11" ht="34.950000000000003" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="21"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:11" ht="35" customHeight="1">
+    <row r="16" spans="1:11" ht="34.950000000000003" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="21"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="35" customHeight="1">
+    <row r="17" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="25"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="63" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>163</v>
-      </c>
       <c r="G18" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="63" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2310,10 +2309,10 @@
     <row r="20" spans="1:9" ht="63" customHeight="1">
       <c r="A20" s="44"/>
       <c r="B20" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -2322,7 +2321,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="35" customHeight="1">
+    <row r="21" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="30"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2333,7 +2332,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="35" customHeight="1">
+    <row r="22" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A22" s="30"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2344,7 +2343,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9" ht="35" customHeight="1">
+    <row r="23" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2355,7 +2354,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9" ht="35" customHeight="1">
+    <row r="24" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -2366,7 +2365,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9" ht="35" customHeight="1">
+    <row r="25" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A25" s="30"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -2377,7 +2376,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9" ht="35" customHeight="1">
+    <row r="26" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -2388,7 +2387,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9" ht="35" customHeight="1">
+    <row r="27" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A27" s="30"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -2399,7 +2398,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" ht="35" customHeight="1">
+    <row r="28" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A28" s="30"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2410,7 +2409,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" ht="35" customHeight="1">
+    <row r="29" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -2421,7 +2420,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:9" ht="35" customHeight="1">
+    <row r="30" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -2432,7 +2431,7 @@
       <c r="H30" s="36"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" ht="35" customHeight="1">
+    <row r="31" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -2443,7 +2442,7 @@
       <c r="H31" s="36"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" ht="35" customHeight="1">
+    <row r="32" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -2454,7 +2453,7 @@
       <c r="H32" s="36"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" ht="35" customHeight="1">
+    <row r="33" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -2465,7 +2464,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9" ht="35" customHeight="1">
+    <row r="34" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -2476,7 +2475,7 @@
       <c r="H34" s="36"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9" ht="35" customHeight="1">
+    <row r="35" spans="1:9" ht="34.950000000000003" customHeight="1">
       <c r="A35" s="30"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -2498,7 +2497,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" ht="18">
+    <row r="37" spans="1:9" ht="17.399999999999999">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -2509,7 +2508,7 @@
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9" ht="18">
+    <row r="38" spans="1:9" ht="17.399999999999999">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2520,7 +2519,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" ht="18">
+    <row r="39" spans="1:9" ht="17.399999999999999">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2531,7 +2530,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" ht="18">
+    <row r="40" spans="1:9" ht="17.399999999999999">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2542,7 +2541,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9" ht="18">
+    <row r="41" spans="1:9" ht="17.399999999999999">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2553,7 +2552,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="18">
+    <row r="42" spans="1:9" ht="17.399999999999999">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2564,7 +2563,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="18">
+    <row r="43" spans="1:9" ht="17.399999999999999">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2575,7 +2574,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9" ht="18">
+    <row r="44" spans="1:9" ht="17.399999999999999">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2586,7 +2585,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" ht="18">
+    <row r="45" spans="1:9" ht="17.399999999999999">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2597,7 +2596,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" ht="18">
+    <row r="46" spans="1:9" ht="17.399999999999999">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2608,7 +2607,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" ht="18">
+    <row r="47" spans="1:9" ht="17.399999999999999">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2619,7 +2618,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9" ht="18">
+    <row r="48" spans="1:9" ht="17.399999999999999">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2630,7 +2629,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" ht="18">
+    <row r="49" spans="1:9" ht="17.399999999999999">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2641,7 +2640,7 @@
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="1:9" ht="18">
+    <row r="50" spans="1:9" ht="17.399999999999999">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2652,7 +2651,7 @@
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="1:9" ht="18">
+    <row r="51" spans="1:9" ht="17.399999999999999">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2663,7 +2662,7 @@
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9" ht="18">
+    <row r="52" spans="1:9" ht="17.399999999999999">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2714,13 +2713,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.59765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.3984375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3145,11 +3144,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E790CD05-7E74-4251-BD11-B26210DE515D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
